--- a/Output_Backtest/Maximum_Sharpe_cumulative_returns.xlsx
+++ b/Output_Backtest/Maximum_Sharpe_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>1.003359308491751</v>
+        <v>1.003359360552805</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.9831913463038839</v>
+        <v>0.9831912427775416</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9524714922734181</v>
+        <v>0.9524712941747809</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9569148425655721</v>
+        <v>0.956914715407774</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>0.9911161738237831</v>
+        <v>0.9911163306159868</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>0.9801648269516049</v>
+        <v>0.9801648735940029</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>1.000203265588325</v>
+        <v>1.000203573079847</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.019174004772549</v>
+        <v>1.019174137796755</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.051865667988423</v>
+        <v>1.051865563096868</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.050789422910911</v>
+        <v>1.050789206165123</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.0526811138482</v>
+        <v>1.052680811283795</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.029662455456462</v>
+        <v>1.029662341738632</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>0.9972183874242163</v>
+        <v>0.9972181486429765</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>1.005290413566364</v>
+        <v>1.005290053200784</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.020363857329988</v>
+        <v>1.020363220468274</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.044034428082461</v>
+        <v>1.044032819853648</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.048070968999831</v>
+        <v>1.048069192011051</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.064039715640054</v>
+        <v>1.064038133491164</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.080541380303831</v>
+        <v>1.080539829339722</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.073786602782969</v>
+        <v>1.073785132037488</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.090738463748562</v>
+        <v>1.090737071588684</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.099837625283829</v>
+        <v>1.099836119737661</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.101437302065408</v>
+        <v>1.101436002201876</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.110148963107606</v>
+        <v>1.110147242487317</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.120315620866253</v>
+        <v>1.120314077452924</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.122825098715807</v>
+        <v>1.122823550958509</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.140721615885155</v>
+        <v>1.140719813454701</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.116922447844656</v>
+        <v>1.116920956013782</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.110608676396938</v>
+        <v>1.110607313523521</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.11066139732712</v>
+        <v>1.110659975628115</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.15225779094179</v>
+        <v>1.152256050360229</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.155366034390803</v>
+        <v>1.155364382014917</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.175650652098393</v>
+        <v>1.175648954585914</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.202929641943749</v>
+        <v>1.202927949782248</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.183930691177933</v>
+        <v>1.183929045868613</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.123526614268712</v>
+        <v>1.123524529339475</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.130713813992182</v>
+        <v>1.130711510526811</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.075575456249724</v>
+        <v>1.075573497510201</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.157681844615073</v>
+        <v>1.157679698360233</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.163623044689195</v>
+        <v>1.163620940372503</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.184840455609281</v>
+        <v>1.184838034770935</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.216213707369092</v>
+        <v>1.216211728294156</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.154513474968596</v>
+        <v>1.154510508525342</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.210589026316458</v>
+        <v>1.210585999325029</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.225846978137553</v>
+        <v>1.225843730480336</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.205965977731675</v>
+        <v>1.205963314968111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.21020714923911</v>
+        <v>1.21020418954215</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.237660757870456</v>
+        <v>1.237657774274637</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.256237622240362</v>
+        <v>1.256235063950995</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.272920266430262</v>
+        <v>1.272917402968037</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.318521971702903</v>
+        <v>1.318519065181932</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.305667792601618</v>
+        <v>1.305664782920183</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.291611289490399</v>
+        <v>1.291608093179886</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.334294062884011</v>
+        <v>1.334289213828418</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.3560952399179</v>
+        <v>1.356090062946742</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.380778236452837</v>
+        <v>1.380772036170522</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.429057856449046</v>
+        <v>1.42905143876021</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.436541824792537</v>
+        <v>1.43653549610731</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.415390708110503</v>
+        <v>1.415384436367175</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.387004215386373</v>
+        <v>1.386997877296244</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.424461567038144</v>
+        <v>1.424454947827272</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.441559127637611</v>
+        <v>1.44155268900298</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.426086958474798</v>
+        <v>1.426080535201602</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.404996382796993</v>
+        <v>1.40498973724188</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.395345377698368</v>
+        <v>1.395338665557162</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.424330524436897</v>
+        <v>1.424324151708102</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.428060664016271</v>
+        <v>1.428054103068316</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.441962032886333</v>
+        <v>1.441955270351087</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.459238913709003</v>
+        <v>1.459231882814047</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.467245196164758</v>
+        <v>1.467238330467501</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.432414555153151</v>
+        <v>1.432407605016174</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.451548733542291</v>
+        <v>1.451541589238988</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.46129860935138</v>
+        <v>1.461291393546382</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.465240657188747</v>
+        <v>1.465233294440913</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.400977552211808</v>
+        <v>1.400970451288719</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.379914997204012</v>
+        <v>1.379908255047647</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.372756781558405</v>
+        <v>1.372750545348205</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.282394925079839</v>
+        <v>1.282389248318581</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.257720503832554</v>
+        <v>1.257714929748208</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.196722984755263</v>
+        <v>1.19671747712381</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.240615003713296</v>
+        <v>1.240609357220757</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.186496629127009</v>
+        <v>1.18649141025357</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.086881944758353</v>
+        <v>1.086877518320451</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.135509526381466</v>
+        <v>1.135504433559856</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.187739153466537</v>
+        <v>1.187733741327792</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.141457646414545</v>
+        <v>1.141452439045651</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.227847821334278</v>
+        <v>1.227842271984172</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.197486930200239</v>
+        <v>1.197481495372196</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.23423686650839</v>
+        <v>1.234231304955015</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.232380098022401</v>
+        <v>1.232374543500329</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.200068680598797</v>
+        <v>1.200063283019256</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.239567696846015</v>
+        <v>1.239562017590685</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.323933924590394</v>
+        <v>1.323927814358166</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.316984724668049</v>
+        <v>1.31697870475788</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.301290344837102</v>
+        <v>1.301284390888857</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.286779890513338</v>
+        <v>1.286774059265484</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.317142299236432</v>
+        <v>1.317136363604033</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.330759253410036</v>
+        <v>1.330753229944166</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.359247010220528</v>
+        <v>1.359240864229217</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.40326232968251</v>
+        <v>1.403255983743098</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.478859931911842</v>
+        <v>1.478853236016658</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.464918820526502</v>
+        <v>1.464912262744221</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.480797627361829</v>
+        <v>1.480791002615853</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.54219176412502</v>
+        <v>1.542184864715881</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.550373022969863</v>
+        <v>1.550366086959664</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.548519145996545</v>
+        <v>1.548512218280164</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.55929428877481</v>
+        <v>1.559287313226872</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.590393108677502</v>
+        <v>1.590385989903552</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.553508735224735</v>
+        <v>1.553501786026558</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Maximum_Sharpe_cumulative_returns.xlsx
+++ b/Output_Backtest/Maximum_Sharpe_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>1.003359360552805</v>
+        <v>1.003359678285495</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.9831912427775416</v>
+        <v>0.9831917317265255</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9524712941747809</v>
+        <v>0.9524699914715011</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.956914715407774</v>
+        <v>0.9569191535512245</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>0.9911163306159868</v>
+        <v>0.9911284773900371</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>0.9801648735940029</v>
+        <v>0.9801774922983506</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>1.000203573079847</v>
+        <v>1.000217411729411</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.019174137796755</v>
+        <v>1.019186920570111</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.051865563096868</v>
+        <v>1.051879557240889</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.050789206165123</v>
+        <v>1.050800731857231</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.052680811283795</v>
+        <v>1.052694292846438</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.029662341738632</v>
+        <v>1.029675380088206</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>0.9972181486429765</v>
+        <v>0.9972317267739711</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>1.005290053200784</v>
+        <v>1.005305551403345</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.020363220468274</v>
+        <v>1.020379743008391</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.044032819853648</v>
+        <v>1.044057918035394</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.048069192011051</v>
+        <v>1.048095545854759</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.064038133491164</v>
+        <v>1.0640646069921</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.080539829339722</v>
+        <v>1.080566212045587</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.073785132037488</v>
+        <v>1.073810975216631</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.090737071588684</v>
+        <v>1.090762115291082</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.099836119737661</v>
+        <v>1.09986112370188</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.101436002201876</v>
+        <v>1.101459349944089</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.110147242487317</v>
+        <v>1.110170763634831</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.120314077452924</v>
+        <v>1.120339768756462</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.122823550958509</v>
+        <v>1.122849718576279</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.140719813454701</v>
+        <v>1.140753917936669</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.116920956013782</v>
+        <v>1.116952145384453</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.110607313523521</v>
+        <v>1.110638482524742</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.110659975628115</v>
+        <v>1.110693668733645</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.152256050360229</v>
+        <v>1.15229168001316</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.155364382014917</v>
+        <v>1.155400418895461</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.175648954585914</v>
+        <v>1.175686898622787</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.202927949782248</v>
+        <v>1.202967234376469</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.183929045868613</v>
+        <v>1.183964585559692</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.123524529339475</v>
+        <v>1.12355669333006</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.130711510526811</v>
+        <v>1.130745575319484</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.075573497510201</v>
+        <v>1.07559985048</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.157679698360233</v>
+        <v>1.15771335767521</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.163620940372503</v>
+        <v>1.163654556161186</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.184838034770935</v>
+        <v>1.184873089240491</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.216211728294156</v>
+        <v>1.21624795073395</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.154510508525342</v>
+        <v>1.154545921445907</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.210585999325029</v>
+        <v>1.21062700222292</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.225843730480336</v>
+        <v>1.225887412276512</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.205963314968111</v>
+        <v>1.206001303836432</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.21020418954215</v>
+        <v>1.210248426978943</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.237657774274637</v>
+        <v>1.237705754501095</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.256235063950995</v>
+        <v>1.256287640411216</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.272917402968037</v>
+        <v>1.27297226839473</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.318519065181932</v>
+        <v>1.318575355557754</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.305664782920183</v>
+        <v>1.305717931281061</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.291608093179886</v>
+        <v>1.291659803122736</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.334289213828418</v>
+        <v>1.334358745070193</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.356090062946742</v>
+        <v>1.356162316453806</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.380772036170522</v>
+        <v>1.380855313477859</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.42905143876021</v>
+        <v>1.429136716944627</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.43653549610731</v>
+        <v>1.436622325674811</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.415384436367175</v>
+        <v>1.415469516862955</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.386997877296244</v>
+        <v>1.387081284874468</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.424454947827272</v>
+        <v>1.424537789858115</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.44155268900298</v>
+        <v>1.441639354164965</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.426080535201602</v>
+        <v>1.426164132960266</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.40498973724188</v>
+        <v>1.405072028148509</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.395338665557162</v>
+        <v>1.395421694903367</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.424324151708102</v>
+        <v>1.424411270429726</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.428054103068316</v>
+        <v>1.428142700156361</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.441955270351087</v>
+        <v>1.442042218009406</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.459231882814047</v>
+        <v>1.459320196789689</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.467238330467501</v>
+        <v>1.467328595338261</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.432407605016174</v>
+        <v>1.43248941665407</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.451541589238988</v>
+        <v>1.451632960795838</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.461291393546382</v>
+        <v>1.46138474293045</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.465233294440913</v>
+        <v>1.46532587290216</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.400970451288719</v>
+        <v>1.401057544554948</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.379908255047647</v>
+        <v>1.379995450970985</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.372750545348205</v>
+        <v>1.372844388957859</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.282389248318581</v>
+        <v>1.282477161466659</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.257714929748208</v>
+        <v>1.257793865290983</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.19671747712381</v>
+        <v>1.19678402897585</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.240609357220757</v>
+        <v>1.240688679113395</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.18649141025357</v>
+        <v>1.186566883891413</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.086877518320451</v>
+        <v>1.086940892262531</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.135504433559856</v>
+        <v>1.135571075061899</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.187733741327792</v>
+        <v>1.187800915064574</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.141452439045651</v>
+        <v>1.141516947846101</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.227842271984172</v>
+        <v>1.227911277107923</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.197481495372196</v>
+        <v>1.19754873319125</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.234231304955015</v>
+        <v>1.234300438977771</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.232374543500329</v>
+        <v>1.232443561503297</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.200063283019256</v>
+        <v>1.200132589589129</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.239562017590685</v>
+        <v>1.239633794511659</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.323927814358166</v>
+        <v>1.324004526693796</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.31697870475788</v>
+        <v>1.317054573341347</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.301284390888857</v>
+        <v>1.301359330140114</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.286774059265484</v>
+        <v>1.286845141556733</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.317136363604033</v>
+        <v>1.317209064401348</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.330753229944166</v>
+        <v>1.330826747257004</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.359240864229217</v>
+        <v>1.359315896312341</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.403255983743098</v>
+        <v>1.403333415698758</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.478853236016658</v>
+        <v>1.478934713989539</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.464912262744221</v>
+        <v>1.464988818825345</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.480791002615853</v>
+        <v>1.480868099676655</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.542184864715881</v>
+        <v>1.542265158234731</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.550366086959664</v>
+        <v>1.550446806432068</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.548512218280164</v>
+        <v>1.548592841231298</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.559287313226872</v>
+        <v>1.55936999087778</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.590385989903552</v>
+        <v>1.590471322291988</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.553501786026558</v>
+        <v>1.578131067044297</v>
       </c>
     </row>
   </sheetData>
